--- a/flashcards/Memcode - KS Oeffentliches Recht I - 1. Test (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Oeffentliches Recht I - 1. Test (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Question</t>
   </si>
@@ -19,6 +19,30 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Mit welchen Grundprinzipien der Verfassung steht das Legalitätsprinzip in Zusammenhang?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Rechtsstaatliches&lt;/strong&gt;: Vollziehung darf nur aufgrund der Gesetze handeln&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Demokratisches&lt;/strong&gt;: Die Vollziehung wird an den Volkswillen gebunden (da dieser die Gesetzgebung beeinflusst). &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie funktionieren Annexmaterien, am Beispiel Verwaltungsstraftatbestände?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Sind kein eigenständiger Kompetenztatbestand, sondern &lt;strong&gt;in Kompetenztatbestand unselbständig mitenthalten&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;Verwaltungsstraftatbestände: geregelt in Art 11 (2) B-VG&lt;/li&gt;&lt;li&gt;Wer für den Tatbestand zuständig ist - z.B.: Länder für Jagd - darf auch die Verwaltungsstraftatbestände normieren.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Grundsätze für die Kompetenzverteilung zwischen Bund und Land?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Kompetenztrennung&lt;/strong&gt;: entweder Bund oder Land zugewiesen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Enumerationsprinzip zählt &lt;/strong&gt;für Bund in 10-12 B-VG &lt;strong&gt;abschließend auf&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Generalklausel &lt;/strong&gt;in 15 B-VG &lt;strong&gt;sorgt für Vollständigkeit&lt;/strong&gt;, in dem der Rest Land zugewiesen wird.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die wichtigsten Annexmaterien?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verwaltungsverfahren (&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank"&gt;Art 11 (2) B-VG&lt;/a&gt;)&lt;/li&gt;&lt;li&gt;Normierung von Verwaltungsstraftatbeständen &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(170, 160, 247);"&gt;Art 11 (2) B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Regelung der Verwaltungspolizei &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;(&lt;/span&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel11" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(170, 160, 247);"&gt;Art 11 (2) B-VG&lt;/a&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;Enteignung / Eigentumsbeschränkungen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Was sind Vollstreckungsakte?&lt;/p&gt;</t>
   </si>
   <si>
@@ -193,24 +217,6 @@
     <t>&lt;p&gt;Hoheitliches Handeln, dass nicht auf dem Erlass von Rechtsnormen beruht.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polizeistreife&lt;/li&gt;&lt;li&gt;Verkehrskontrolle&lt;/li&gt;&lt;li&gt;Urkundenausstellung&lt;/li&gt;&lt;li&gt;Auskunft durch Behörde&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Approbationsbefugnis&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Innerbehördliches Mandat&lt;/li&gt;&lt;li&gt;Organwalter kann Aufgaben an das Amt übertragen&lt;/li&gt;&lt;li&gt;Approbationsbefugte Beamte können damit "im Auftrag" der Behörde Bescheide oder Verordnungen erlassen, der Organwalter ist jedoch immer weisungsbefugt.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Amt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einer Behörde zugeordneter bürokratischer Hilfsapparat, handelt nicht selbst hoheitlich. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Behörde&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verwaltungsorgane mit Rechtssetzungsbefugnissen (handeln hoheitlich)&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Weisungsfreie Vollziehung&lt;/p&gt;</t>
   </si>
   <si>
@@ -247,24 +253,6 @@
     <t>&lt;p&gt;Die &lt;strong&gt;Möglichkeit&lt;/strong&gt; einer Organisation in einer Sache zu handeln&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Organwalter (Definition, Zuordnung, Arten)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Den abstrakten Organen werden konkrete Menschen zugeordnet. &lt;/li&gt;&lt;li&gt;Gesetzessprache verwendet Organ und Organwalter oft synonym&lt;/li&gt;&lt;li&gt;Immer einer Gebietskörperschaft zugeordnet&lt;/li&gt;&lt;li&gt;Arten (Gesamtbegriff &lt;strong&gt;öffentliche Bedienstete&lt;/strong&gt;)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Beamte = ernannte berufsmäßige Organe&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Vertragsbedienstete = vertraglich bestellte Organe&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organ&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abstrakt, dem Organ sind &lt;strong&gt;Organzuständigkeiten &lt;/strong&gt;zugeordnet, diese sind teil der Zuständigkeit der &lt;strong&gt;Organisation&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Organisation&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Abstrakte Konstrukte der Rechtsordnung denen bestimmte Aufgaben zukommen, bestehen meist aus vielen Organen&lt;/p&gt;&lt;ul&gt;&lt;li&gt;z.B.: Gebietskörperschaft, Verwaltungsorganisation, Gerichtsorganisation&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Berücksichtigungsgebot&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -529,12 +517,6 @@
     <t>&lt;p&gt;Parteiengesetz 2012&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Wahlrechtsgrundsätze&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.jusline.at/gesetz/b-vg/paragraf/artikel26" rel="noopener noreferrer" target="_blank"&gt;Art. 26 B-VG&lt;/a&gt;; Briefwahl: Art. 26 Abs. 6 B-VG&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Gleiches Wahlrecht&lt;/strong&gt;: Jede Stimme ist gleich gewichtet (egalitäre Demokratie)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Unmittelbares Wahlrecht: &lt;/strong&gt;(keine Wahlmänner, ...)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Persönliches Wahlrecht:&lt;/strong&gt; keine Stellvertretung (Ausnahme: beeinträchtigt wie z.B. Blind)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Freies&lt;/strong&gt; &lt;strong&gt;Wahlrecht&lt;/strong&gt;: Kein Zwang; Freiheit der Wahlparteien zu werben&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Geheimes Wahlrecht: &lt;/strong&gt;Stimme kann und muss geheim abgegeben werden&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Verhältniswahlrecht&lt;/strong&gt;: Stimmenanteil bestimmt Mandatsverteilung. Abweichung durch Bürgerzahlprinzip und 4% Klausel.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Egalitäre Demokratie&lt;/p&gt;</t>
   </si>
   <si>
@@ -604,7 +586,7 @@
     <t>&lt;p&gt;Materielle vs Formelle Verfassung&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Materiell&lt;/strong&gt;: Inhaltlich der Verfassung zugehörig (Organisation des Staates, Ausübung der Gewalt)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Formell&lt;/strong&gt;: Alle Gesetze mit Verfassungsrang (Entstanden durch Verfassungsgesetzgebungsverfahren), tatsächliches Verfassungsrecht&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Nicht immer deckungsgleich!&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Materiell (&lt;/strong&gt;Inhalt zählt&lt;strong&gt;)&lt;/strong&gt;: Regelt die Grundordnung des Staates, ist also Inhaltlich der Verfassung zugehörig (Organisation des Staates, Ausübung der Gewalt) &lt;/li&gt;&lt;li&gt;&lt;strong&gt;Formell (&lt;/strong&gt;Entstehungsverfahren zählt&lt;strong&gt;)&lt;/strong&gt;: Alle Gesetze mit Verfassungsrang (Entstanden durch Verfassungsgesetzgebungsverfahren), tatsächliches Verfassungsrecht&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;Nicht immer deckungsgleich!&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Forderungen des Konstitutionalismus (Verfassung im Materiellen Sinn)&amp;nbsp;&lt;/p&gt;</t>
@@ -634,7 +616,7 @@
     <t>&lt;p&gt;(gesellschaftliche) &lt;span style="color: rgb(226, 148, 20); background-color: rgb(40, 45, 88);"&gt;Norm&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Immer verbunden mit einem Sollenssatz (= Reaktion auf tatsächliche Verhältnisse / auf einen Tatbestand)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt;Durchsetzung erfolgt durch psychische Methoden, Belohnungen oder körperliche Gewalt&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;= eine Verhaltensanordnung die durchsetzbar ist.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Immer verbunden mit einem Sollenssatz (= Reaktion auf tatsächliche Verhältnisse / auf einen Tatbestand)&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Durchsetzung erfolgt durch psychische Methoden, Belohnungen oder körperliche Gewalt&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;3 Rechtsordnungen&lt;/p&gt;</t>
@@ -1078,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B110"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -1964,30 +1946,6 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
